--- a/API LIST.xlsx
+++ b/API LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Report</t>
   </si>
@@ -136,13 +136,42 @@
   </si>
   <si>
     <t>RICEF SAP</t>
+  </si>
+  <si>
+    <t>Tidak ada di internal, tidak ada contoh</t>
+  </si>
+  <si>
+    <t>PERSENTASE SELESAI</t>
+  </si>
+  <si>
+    <t>material document, barcode</t>
+  </si>
+  <si>
+    <t>tm_barcode_gr, pz_material_document_header, pz_material_document_item</t>
+  </si>
+  <si>
+    <t>https://my430621-api.s4hana.cloud.sap/sap/opu/odata/sap/API_SALES_ORDER_SRV/</t>
+  </si>
+  <si>
+    <t>username : LEUWITEX_US_SAP_COM_0338</t>
+  </si>
+  <si>
+    <t>password : t{lX&amp;nvQcn(lzA&amp;SE&amp;2Y4zSPfS~5UrM-i@&gt;5YNVC</t>
+  </si>
+  <si>
+    <t>, api sales order</t>
+  </si>
+  <si>
+    <t>https://my430621-api.s4hana.cloud.sap/sap/opu/odata/sap/API_MATERIAL_STOCK_SRV
+LEUWITEX_US_SAP_COM_0947
+qyUUYn%4be7bl&gt;m(VT/9nuW#3/342j~W9{C/88jL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +190,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +218,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,11 +254,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -218,18 +277,67 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,35 +637,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -579,8 +689,11 @@
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1">
+      <c r="H3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -590,14 +703,19 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="60" customHeight="1">
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -607,14 +725,14 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" customHeight="1">
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -624,14 +742,15 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" customHeight="1">
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -641,14 +760,15 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1">
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -658,31 +778,33 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" customHeight="1">
-      <c r="A9" s="2">
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1">
+      <c r="D9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -692,14 +814,15 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="60" customHeight="1">
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -709,14 +832,15 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1">
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -726,14 +850,15 @@
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1">
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -743,14 +868,15 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1">
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -760,14 +886,15 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" customHeight="1">
+      <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -777,14 +904,15 @@
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1">
+      <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -794,14 +922,15 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1">
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -811,31 +940,35 @@
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1">
-      <c r="A18" s="2">
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1">
+      <c r="D18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -845,14 +978,15 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1">
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -862,14 +996,15 @@
       <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="60" customHeight="1">
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -879,14 +1014,15 @@
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" customHeight="1">
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -896,14 +1032,15 @@
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" customHeight="1">
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -913,14 +1050,15 @@
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1">
+      <c r="D23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -930,14 +1068,15 @@
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1">
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -947,14 +1086,15 @@
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" customHeight="1">
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -964,14 +1104,15 @@
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" customHeight="1">
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -981,14 +1122,15 @@
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="60" customHeight="1">
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -998,14 +1140,15 @@
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="60" customHeight="1">
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1015,14 +1158,15 @@
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="60" customHeight="1">
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1032,33 +1176,35 @@
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="60" customHeight="1">
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1066,12 +1212,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:I10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" location="3/342j~W9{C/88jL"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
